--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1187,6 +1187,64 @@
         <v>1944.494302311999</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-01-22_21-59-04</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0.018131</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.59711</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0029192</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.83533</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.53625</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.58791</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.30006</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5881.749419995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +1245,64 @@
         <v>5881.749419995</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-01-23_14-38-38</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6.626419833002728</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1303,6 +1303,64 @@
         <v>6.626419833002728</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-01-24_22-35-21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E16" t="n">
+        <v>400</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0.013458</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.032129</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0014513</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9826</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.92309</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.94868</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.65893</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4524.368536442998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1719,6 +1719,172 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-01-25_13-20-31</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E19" t="n">
+        <v>400</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>200</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.014579</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.24963</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0017975</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.91552</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.80163</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.90055</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.65303</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1430.769222385003</v>
+      </c>
+      <c r="S19" t="n">
+        <v>64</v>
+      </c>
+      <c r="T19" t="n">
+        <v>75</v>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="n">
+        <v>5e-08</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>6.370445785761035e-08</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-01-25_15-12-47</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E20" t="n">
+        <v>400</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>200</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.010991</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.28286</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0027337</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.79535</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7240799999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8817700000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.64328</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1277.885472744005</v>
+      </c>
+      <c r="S20" t="n">
+        <v>64</v>
+      </c>
+      <c r="T20" t="n">
+        <v>75</v>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>6.370445785761035e-08</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1885,6 +1885,91 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-01-25_16-35-26</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E21" t="n">
+        <v>400</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>200</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0.010648</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.96122</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.00093918</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.63633</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.66113</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.87324</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.64518</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1403.037517424003</v>
+      </c>
+      <c r="S21" t="n">
+        <v>64</v>
+      </c>
+      <c r="T21" t="n">
+        <v>75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7.644534942913242e-08</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2140,6 +2140,261 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-01-26_10-54-37</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>16</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E24" t="n">
+        <v>800</v>
+      </c>
+      <c r="F24" t="n">
+        <v>200</v>
+      </c>
+      <c r="G24" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0.021704</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.021193</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.012717</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.55387</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.64861</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.60519</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.31069</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1205.583910380985</v>
+      </c>
+      <c r="S24" t="n">
+        <v>64</v>
+      </c>
+      <c r="T24" t="n">
+        <v>75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>5.5e-05</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3.50374518216857e-08</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-01-26_11-21-12</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>16</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E25" t="n">
+        <v>800</v>
+      </c>
+      <c r="F25" t="n">
+        <v>200</v>
+      </c>
+      <c r="G25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0.018749</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.024162</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.008262</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.62542</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5109</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.56864</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.32093</v>
+      </c>
+      <c r="P25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1202.105571934022</v>
+      </c>
+      <c r="S25" t="n">
+        <v>64</v>
+      </c>
+      <c r="T25" t="n">
+        <v>75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>4.5e-05</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2.866700603592466e-08</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-01-26_14-15-10</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>16</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E26" t="n">
+        <v>800</v>
+      </c>
+      <c r="F26" t="n">
+        <v>200</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0.019518</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.024605</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0076021</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.58108</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.52674</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.29897</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1223.625638099009</v>
+      </c>
+      <c r="S26" t="n">
+        <v>64</v>
+      </c>
+      <c r="T26" t="n">
+        <v>75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4e-05</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2.548178314304414e-08</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2395,6 +2395,91 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-01-26_22-21-18</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>16</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E27" t="n">
+        <v>800</v>
+      </c>
+      <c r="F27" t="n">
+        <v>200</v>
+      </c>
+      <c r="G27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0.024349</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.030619</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0072011</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.62491</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.54475</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.53846</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.2436</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2545.7832549</v>
+      </c>
+      <c r="S27" t="n">
+        <v>64</v>
+      </c>
+      <c r="T27" t="n">
+        <v>75</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.5e-05</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2.229656025016362e-08</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2480,6 +2480,176 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-01-26_23-11-10</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E28" t="n">
+        <v>800</v>
+      </c>
+      <c r="F28" t="n">
+        <v>200</v>
+      </c>
+      <c r="G28" t="n">
+        <v>100</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0.031664</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.032917</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0073818</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.54014</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.47626</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.45547</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.17936</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1684.881191</v>
+      </c>
+      <c r="S28" t="n">
+        <v>64</v>
+      </c>
+      <c r="T28" t="n">
+        <v>75</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.911133735728311e-08</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-01-26_23-41-05</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>16</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E29" t="n">
+        <v>800</v>
+      </c>
+      <c r="F29" t="n">
+        <v>200</v>
+      </c>
+      <c r="G29" t="n">
+        <v>100</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0.039773</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.036713</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.007042</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.4277</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.4295</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.31348</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.098152</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>28946.4584832</v>
+      </c>
+      <c r="S29" t="n">
+        <v>64</v>
+      </c>
+      <c r="T29" t="n">
+        <v>75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.592611446440259e-08</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2650,6 +2650,91 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-01-27_11-33-57</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>16</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E30" t="n">
+        <v>800</v>
+      </c>
+      <c r="F30" t="n">
+        <v>200</v>
+      </c>
+      <c r="G30" t="n">
+        <v>100</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0.044561</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.044496</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0069845</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.21498</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.047415</v>
+      </c>
+      <c r="P30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3180.6760134</v>
+      </c>
+      <c r="S30" t="n">
+        <v>64</v>
+      </c>
+      <c r="T30" t="n">
+        <v>75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.274089157152207e-08</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2735,6 +2735,91 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-02-14_16-20-41</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>16</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F31" t="n">
+        <v>600</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.01585</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.019664</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0072268</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.49253</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.79354</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.54701</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.34428</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6086.8092823</v>
+      </c>
+      <c r="S31" t="n">
+        <v>30</v>
+      </c>
+      <c r="T31" t="n">
+        <v>50</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>3.185222892880518e-08</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2820,6 +2820,91 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-02-14_18-54-32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>16</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F32" t="n">
+        <v>600</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0.01585</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.019664</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0072268</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.49253</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.79354</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.54701</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.34428</v>
+      </c>
+      <c r="P32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3891.6198775</v>
+      </c>
+      <c r="S32" t="n">
+        <v>30</v>
+      </c>
+      <c r="T32" t="n">
+        <v>50</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>3.185222892880518e-08</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2905,6 +2905,1366 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-02-14_20-46-31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F33" t="n">
+        <v>600</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0.017778</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.020335</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0072961</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.50905</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.73333</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.55832</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.31029</v>
+      </c>
+      <c r="P33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>515.985235</v>
+      </c>
+      <c r="S33" t="n">
+        <v>30</v>
+      </c>
+      <c r="T33" t="n">
+        <v>50</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3.185222892880518e-08</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-02-14_20-55-07</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F34" t="n">
+        <v>600</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0.020213</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.021853</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0074868</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.45431</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.94542</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5676099999999999</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.29026</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>509.1180323</v>
+      </c>
+      <c r="S34" t="n">
+        <v>30</v>
+      </c>
+      <c r="T34" t="n">
+        <v>50</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3.822267471456621e-08</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-02-14_21-03-37</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F35" t="n">
+        <v>600</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0.020342</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.021187</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0074764</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.48164</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.94021</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.60206</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.32323</v>
+      </c>
+      <c r="P35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>522.9796717000002</v>
+      </c>
+      <c r="S35" t="n">
+        <v>30</v>
+      </c>
+      <c r="T35" t="n">
+        <v>50</v>
+      </c>
+      <c r="U35" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>4.459312050032725e-08</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-02-14_21-12-20</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F36" t="n">
+        <v>600</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0.019123</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.023493</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.006569</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.4892</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.92958</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.59582</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.31295</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>524.8136173999999</v>
+      </c>
+      <c r="S36" t="n">
+        <v>30</v>
+      </c>
+      <c r="T36" t="n">
+        <v>50</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>7.999999999999999e-05</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>5.096356628608828e-08</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-02-14_21-21-04</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F37" t="n">
+        <v>600</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0.022416</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.022756</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0065589</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.48484</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.87708</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.64105</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.31909</v>
+      </c>
+      <c r="P37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>522.6840120000002</v>
+      </c>
+      <c r="S37" t="n">
+        <v>30</v>
+      </c>
+      <c r="T37" t="n">
+        <v>50</v>
+      </c>
+      <c r="U37" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8.999999999999999e-05</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>5.733401207184932e-08</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-02-14_21-32-38</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F38" t="n">
+        <v>600</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0.017778</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.020335</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0072961</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.50905</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.73333</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.55832</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.31029</v>
+      </c>
+      <c r="P38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>525.4012952</v>
+      </c>
+      <c r="S38" t="n">
+        <v>30</v>
+      </c>
+      <c r="T38" t="n">
+        <v>50</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>3.185222892880518e-08</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-02-14_21-41-24</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F39" t="n">
+        <v>600</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0.020213</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.021853</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0074868</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.45431</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.94542</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5676099999999999</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.29026</v>
+      </c>
+      <c r="P39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>510.9724570999999</v>
+      </c>
+      <c r="S39" t="n">
+        <v>30</v>
+      </c>
+      <c r="T39" t="n">
+        <v>50</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>3.822267471456621e-08</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-02-14_21-49-55</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F40" t="n">
+        <v>600</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0.020342</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.021187</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0074764</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.48164</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.94021</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.60206</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.32323</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>507.883026</v>
+      </c>
+      <c r="S40" t="n">
+        <v>30</v>
+      </c>
+      <c r="T40" t="n">
+        <v>50</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>4.459312050032725e-08</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-02-14_21-58-23</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F41" t="n">
+        <v>600</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0.019123</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.023493</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.006569</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.4892</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.92958</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.59582</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.31295</v>
+      </c>
+      <c r="P41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>509.0889830000001</v>
+      </c>
+      <c r="S41" t="n">
+        <v>30</v>
+      </c>
+      <c r="T41" t="n">
+        <v>50</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>7.999999999999999e-05</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>5.096356628608828e-08</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-02-14_22-06-52</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F42" t="n">
+        <v>600</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0.022416</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.022756</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0065589</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.48484</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.87708</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.64105</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.31909</v>
+      </c>
+      <c r="P42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1372.4073464</v>
+      </c>
+      <c r="S42" t="n">
+        <v>30</v>
+      </c>
+      <c r="T42" t="n">
+        <v>50</v>
+      </c>
+      <c r="U42" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.999999999999999e-05</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5.733401207184932e-08</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-02-14_22-29-44</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F43" t="n">
+        <v>600</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0.018952</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.024938</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.007096</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.46691</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.92646</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.69582</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.37089</v>
+      </c>
+      <c r="P43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>509.0704382000004</v>
+      </c>
+      <c r="S43" t="n">
+        <v>30</v>
+      </c>
+      <c r="T43" t="n">
+        <v>50</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>9.999999999999999e-05</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>6.370445785761035e-08</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-02-14_22-38-14</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F44" t="n">
+        <v>600</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0.018737</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.022557</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0072252</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.4852</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.88833</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.67813</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.35849</v>
+      </c>
+      <c r="P44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>537.4692151999998</v>
+      </c>
+      <c r="S44" t="n">
+        <v>30</v>
+      </c>
+      <c r="T44" t="n">
+        <v>50</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>7.00749036433714e-08</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-02-14_22-47-11</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F45" t="n">
+        <v>600</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0.019704</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.023287</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0065492</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.50045</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.88271</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6992699999999999</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.33708</v>
+      </c>
+      <c r="P45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>529.8800701</v>
+      </c>
+      <c r="S45" t="n">
+        <v>30</v>
+      </c>
+      <c r="T45" t="n">
+        <v>50</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>7.644534942913242e-08</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-02-14_22-56-01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F46" t="n">
+        <v>600</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0.016928</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.022056</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.007241</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.52207</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.83292</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.69149</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.37378</v>
+      </c>
+      <c r="P46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>518.1626563</v>
+      </c>
+      <c r="S46" t="n">
+        <v>30</v>
+      </c>
+      <c r="T46" t="n">
+        <v>50</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>8.281579521489347e-08</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-04-39</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F47" t="n">
+        <v>600</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0.02238</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.027223</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0073533</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.51663</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.83708</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.70899</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.2948</v>
+      </c>
+      <c r="P47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>517.9140408999992</v>
+      </c>
+      <c r="S47" t="n">
+        <v>30</v>
+      </c>
+      <c r="T47" t="n">
+        <v>50</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X47" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>8.918624100065449e-08</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-13-17</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F48" t="n">
+        <v>600</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0.016775</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.022785</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0054366</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.56938</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.75875</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.68926</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.35677</v>
+      </c>
+      <c r="P48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>517.6493812999997</v>
+      </c>
+      <c r="S48" t="n">
+        <v>30</v>
+      </c>
+      <c r="T48" t="n">
+        <v>50</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>9.555668678641552e-08</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4265,6 +4265,91 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-21-55</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F49" t="n">
+        <v>600</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0.018909</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.026391</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0054985</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.53124</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.77271</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.6584</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.33023</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>522.0679485999999</v>
+      </c>
+      <c r="S49" t="n">
+        <v>30</v>
+      </c>
+      <c r="T49" t="n">
+        <v>50</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X49" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.00016</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.019271325721766e-07</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4350,6 +4350,261 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-30-37</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F50" t="n">
+        <v>600</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0.019877</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.024389</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0048482</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.90284</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.62713</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.72962</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.39913</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>714.5794233999995</v>
+      </c>
+      <c r="S50" t="n">
+        <v>30</v>
+      </c>
+      <c r="T50" t="n">
+        <v>50</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X50" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.082975783579376e-07</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-42-32</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F51" t="n">
+        <v>600</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0.021083</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.025973</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.005431</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.76425</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.67542</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.73461</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.33814</v>
+      </c>
+      <c r="P51" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>535.7127607000002</v>
+      </c>
+      <c r="S51" t="n">
+        <v>30</v>
+      </c>
+      <c r="T51" t="n">
+        <v>50</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.00018</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.146680241436986e-07</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-51-28</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F52" t="n">
+        <v>600</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0.02019</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.025918</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0045809</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.88008</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.67792</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.77147</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.37738</v>
+      </c>
+      <c r="P52" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>537.8479236999992</v>
+      </c>
+      <c r="S52" t="n">
+        <v>30</v>
+      </c>
+      <c r="T52" t="n">
+        <v>50</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.210384699294597e-07</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4605,6 +4605,91 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-02-15_00-08-53</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F53" t="n">
+        <v>600</v>
+      </c>
+      <c r="G53" t="n">
+        <v>300</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0.013246</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.018415</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0063184</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.70061</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.63239</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.70782</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.45943</v>
+      </c>
+      <c r="P53" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4982.995891699999</v>
+      </c>
+      <c r="S53" t="n">
+        <v>30</v>
+      </c>
+      <c r="T53" t="n">
+        <v>50</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X53" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>3.185222892880518e-08</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4690,6 +4690,91 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-02-15_09-55-12</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F54" t="n">
+        <v>600</v>
+      </c>
+      <c r="G54" t="n">
+        <v>300</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0.013246</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.018415</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0063184</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.70061</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.63239</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.70782</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.45943</v>
+      </c>
+      <c r="P54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5015.1858273</v>
+      </c>
+      <c r="S54" t="n">
+        <v>30</v>
+      </c>
+      <c r="T54" t="n">
+        <v>50</v>
+      </c>
+      <c r="U54" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X54" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>3.185222892880518e-08</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA54"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4775,6 +4775,261 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-02-15_11-18-47</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F55" t="n">
+        <v>600</v>
+      </c>
+      <c r="G55" t="n">
+        <v>300</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0.013931</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.020136</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.012649</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.54035</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.90273</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.74824</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.4604</v>
+      </c>
+      <c r="P55" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5883.0356325</v>
+      </c>
+      <c r="S55" t="n">
+        <v>30</v>
+      </c>
+      <c r="T55" t="n">
+        <v>50</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X55" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>3.822267471456621e-08</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-02-15_12-56-50</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F56" t="n">
+        <v>600</v>
+      </c>
+      <c r="G56" t="n">
+        <v>300</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>0.017918</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.020986</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0056462</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.78045</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.65488</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.77091</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.43978</v>
+      </c>
+      <c r="P56" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3967.101248999999</v>
+      </c>
+      <c r="S56" t="n">
+        <v>30</v>
+      </c>
+      <c r="T56" t="n">
+        <v>50</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>4.459312050032725e-08</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-02-15_14-02-58</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F57" t="n">
+        <v>600</v>
+      </c>
+      <c r="G57" t="n">
+        <v>300</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0.017966</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.024548</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.012936</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.50945</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.9156300000000001</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.71347</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.43235</v>
+      </c>
+      <c r="P57" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3952.770894199999</v>
+      </c>
+      <c r="S57" t="n">
+        <v>30</v>
+      </c>
+      <c r="T57" t="n">
+        <v>50</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X57" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>7.999999999999999e-05</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>5.096356628608828e-08</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5030,6 +5030,261 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-02-15_15-08-50</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F58" t="n">
+        <v>600</v>
+      </c>
+      <c r="G58" t="n">
+        <v>300</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0.010846</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.016645</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0028498</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.90027</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.71322</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.79782</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.55122</v>
+      </c>
+      <c r="P58" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>9886.078176700001</v>
+      </c>
+      <c r="S58" t="n">
+        <v>30</v>
+      </c>
+      <c r="T58" t="n">
+        <v>50</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X58" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>8.999999999999999e-05</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>5.733401207184932e-08</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-02-15_17-53-37</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F59" t="n">
+        <v>600</v>
+      </c>
+      <c r="G59" t="n">
+        <v>300</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0.022276</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.02621</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.010019</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.67957</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.65607</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.75626</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.37768</v>
+      </c>
+      <c r="P59" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3898.910765299999</v>
+      </c>
+      <c r="S59" t="n">
+        <v>30</v>
+      </c>
+      <c r="T59" t="n">
+        <v>50</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X59" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>9.999999999999999e-05</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>6.370445785761035e-08</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-02-15_18-58-36</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F60" t="n">
+        <v>600</v>
+      </c>
+      <c r="G60" t="n">
+        <v>300</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0.017701</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.023117</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0064913</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.75911</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.66792</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.72531</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.42726</v>
+      </c>
+      <c r="P60" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3793.687056100003</v>
+      </c>
+      <c r="S60" t="n">
+        <v>30</v>
+      </c>
+      <c r="T60" t="n">
+        <v>50</v>
+      </c>
+      <c r="U60" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X60" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>7.00749036433714e-08</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5285,6 +5285,261 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-02-15_20-01-49</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F61" t="n">
+        <v>600</v>
+      </c>
+      <c r="G61" t="n">
+        <v>300</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0.019137</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.023188</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0057536</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.78867</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.66167</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.72105</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.34581</v>
+      </c>
+      <c r="P61" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3786.408865400001</v>
+      </c>
+      <c r="S61" t="n">
+        <v>30</v>
+      </c>
+      <c r="T61" t="n">
+        <v>50</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W61" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X61" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>7.644534942913242e-08</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-02-15_21-04-56</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F62" t="n">
+        <v>600</v>
+      </c>
+      <c r="G62" t="n">
+        <v>300</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0.017993</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.021851</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0051638</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.86168</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.66604</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.7690900000000001</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.42907</v>
+      </c>
+      <c r="P62" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3831.122254399997</v>
+      </c>
+      <c r="S62" t="n">
+        <v>30</v>
+      </c>
+      <c r="T62" t="n">
+        <v>50</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X62" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>8.281579521489347e-08</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-02-15_22-08-47</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F63" t="n">
+        <v>600</v>
+      </c>
+      <c r="G63" t="n">
+        <v>300</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0.021598</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.024593</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.006636</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.89407</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.67208</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.76257</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.40622</v>
+      </c>
+      <c r="P63" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3865.465954899999</v>
+      </c>
+      <c r="S63" t="n">
+        <v>30</v>
+      </c>
+      <c r="T63" t="n">
+        <v>50</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X63" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>8.918624100065449e-08</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_yolo/results.xlsx
+++ b/logs_yolo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5540,6 +5540,431 @@
         <v>3072</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-02-15_23-13-13</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F64" t="n">
+        <v>600</v>
+      </c>
+      <c r="G64" t="n">
+        <v>300</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0.017139</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.022153</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.0065762</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.84784</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.69458</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.77712</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.43928</v>
+      </c>
+      <c r="P64" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3758.673336</v>
+      </c>
+      <c r="S64" t="n">
+        <v>30</v>
+      </c>
+      <c r="T64" t="n">
+        <v>50</v>
+      </c>
+      <c r="U64" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X64" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>9.555668678641552e-08</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-02-16_00-15-52</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F65" t="n">
+        <v>600</v>
+      </c>
+      <c r="G65" t="n">
+        <v>300</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0.020843</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.023443</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0068374</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.74702</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.60827</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.80529</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.41823</v>
+      </c>
+      <c r="P65" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3877.069211199996</v>
+      </c>
+      <c r="S65" t="n">
+        <v>30</v>
+      </c>
+      <c r="T65" t="n">
+        <v>50</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X65" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.00016</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.019271325721766e-07</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-02-16_01-20-29</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F66" t="n">
+        <v>600</v>
+      </c>
+      <c r="G66" t="n">
+        <v>300</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0.023139</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.026407</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0047413</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.87108</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.65707</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.75365</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.35729</v>
+      </c>
+      <c r="P66" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3777.0501401</v>
+      </c>
+      <c r="S66" t="n">
+        <v>30</v>
+      </c>
+      <c r="T66" t="n">
+        <v>50</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.082975783579376e-07</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-02-16_02-23-26</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F67" t="n">
+        <v>600</v>
+      </c>
+      <c r="G67" t="n">
+        <v>300</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0.023283</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.024465</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.004826</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.85103</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.69129</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.7787500000000001</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.42111</v>
+      </c>
+      <c r="P67" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3777.821203699998</v>
+      </c>
+      <c r="S67" t="n">
+        <v>30</v>
+      </c>
+      <c r="T67" t="n">
+        <v>50</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X67" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.00018</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.146680241436986e-07</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-02-16_03-26-24</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>yolov5</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F68" t="n">
+        <v>600</v>
+      </c>
+      <c r="G68" t="n">
+        <v>300</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0.023446</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.024594</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0053113</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.88519</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.73792</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.81898</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.44566</v>
+      </c>
+      <c r="P68" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3771.500311300006</v>
+      </c>
+      <c r="S68" t="n">
+        <v>30</v>
+      </c>
+      <c r="T68" t="n">
+        <v>50</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3072</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="W68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X68" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.210384699294597e-07</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>3072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
